--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/42_K.Maraş_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/42_K.Maraş_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6A48F1-CFE7-4345-8823-3A4A71B79D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64187B1B-32E5-4713-ABB6-EF16A165FAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="683" xr2:uid="{066EE1FF-72DD-4AB8-B78C-26FE0759E480}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{59202D03-EEBD-45E0-8352-F29CFDDA6750}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -945,10 +945,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A012DC67-FFDA-47BA-9B88-EE75FCF5882C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="3" xr:uid="{13161FE8-5EB9-4DF9-BBEE-AD5690659BCE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="4" xr:uid="{24B1EDFD-F352-480E-B784-A1C0180C2FC8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="5" xr:uid="{E327045A-D612-4CC4-B274-DCAB2B6E71C0}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A30A55D0-1636-46C6-AD1F-063106E5AD95}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="3" xr:uid="{A54A15F6-BAA0-44CC-839F-E10639911FD3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="4" xr:uid="{4B02B980-C90C-45D2-8DBE-AD7680B14619}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="5" xr:uid="{1DA87FEF-143A-456F-8E13-A3A97C5151A1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ACA022-CA41-4CE7-8999-B160FE15183A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB63344A-8FB0-49D6-92FD-38161AE8CDBC}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2610,17 +2610,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D52CC4D7-31DF-4F70-A0EB-A21E39801E46}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13A97540-8B4D-44B5-98CC-885DBC05084D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C6BF23F8-841C-4418-A169-CBF1E0EE6A64}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B21C381-53FA-4405-BA0E-67D95DDF115B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2F93206-94A2-44F4-A190-FDE485A795F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE822856-E023-4DE2-B855-29D0F5221807}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00B17A2D-AB84-4A55-B861-34FF954CC26D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D605C4C-E5D9-4940-B8C7-3D7B6515E736}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{45D2D55C-B898-44F6-A274-275ED97F1DF2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6764233A-8CD3-4D63-BB59-41DEAF68DECD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41B15E66-66DB-4543-A21E-87F94AECD439}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66D249FE-5A8B-4946-8C79-5781C67A0CB6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E68265E-FBC0-4002-A654-45B37A6DB220}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9EDF5D9C-4E1C-474D-BCFA-25D23FBD12A9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CB50F4D-C656-4827-A4BB-ED08BBF189CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E0E56C6-9BC4-4F59-886E-29B33E5346C0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A3B109FD-B173-4D57-8F3E-87836F200768}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D370A54-A700-45EB-ACF2-72873B70F49E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{634BFF03-7A12-4CB0-B251-56ADC74EF685}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{09EAF4A1-1E19-40CD-9046-8B2F5D824312}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C5A0231E-37D9-4652-BFC1-27C0E6629FA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E254DEC6-B5F0-4EA5-9E16-B6E1729C28ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2633,7 +2633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A2E045-EF37-43A2-9A7B-A8814480D105}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707F5C19-52FB-4A5E-901E-14A671C45890}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3916,17 +3916,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83F899C3-A4F9-4C3B-B06D-66AB2986374C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A7223202-A4DC-43E6-A5FD-4E084BB38C84}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9317CAAC-06A8-4026-8771-4D5DF6CDF5F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31DACE60-C3D6-4164-8846-659CF8C56675}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6FD86C9F-6F7B-441E-B6EF-55E1E382C868}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{31284534-8A41-42FF-898C-3BD94AB746C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12121ED5-A496-4692-BE44-DFC9A99D9968}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{979420A7-D1D0-4E22-A439-6951FD6088CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C4C1BB46-31B8-4F29-8EC1-8172DF0E410E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{383AAE6E-C74B-42FD-97D7-33AF4E753C3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FB51EBB-219C-441F-8CF9-35D5AB952964}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9372565C-EE33-46C6-819E-B66AB2924B52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C04883C4-B495-4020-B23E-AA50DA9D964C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6ADEE10C-B853-4554-BF69-518C11DCCCD2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{10C4DDCD-8F97-4A76-82E8-D9E28CBE6FA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FCD67045-B40B-44A1-BA63-223F15B7F3EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C4B0052B-2575-4A72-A2E7-A410CD800ED9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E6B09CB-61BD-4C39-938C-388A006F2FAD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0F8472C-0D73-4809-AB30-DF1D3DEB2997}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0454A231-3606-4151-8F7A-503A289CEED6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{22762540-F6D4-4C72-9CCF-E986CEC571C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{761669B3-824F-451E-A612-2E02DE5074B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3939,7 +3939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E62D1C4-6C02-45D9-9D09-2E9FC3F62A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F03A8D-AC3F-4323-840B-903E9BD493E4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5220,17 +5220,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CE24318-BBD3-4717-91F2-F982263CF04C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8AED1F25-B138-481E-A0CD-7584AC4D1A60}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{891606C6-E6E7-4373-9955-A74C245F3299}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{636D8F1C-F67F-4777-8D2D-1B7ED634A052}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74FA2827-BD4A-49FD-B3A1-57B19BF9B7AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{01734D5D-CE0F-41BE-BC89-933310FE1A01}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{478A9F34-88D3-400C-B4EF-3419C35CC558}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8B05843-B93F-4D83-ABCC-471B646AD742}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B5FA1A92-E454-47C7-A3A2-02120EA42273}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3BCA62A8-E17F-44C2-AFB3-23C8896ACBD7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{167A7058-294C-414D-AEE8-4D2851E6FC02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FC579FD-AA0A-4EEB-B161-E55B3905B0C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B34BC4D1-5DE2-4252-BDD6-79375D46C16A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BE859CF-F758-4AC3-9292-BF87207B943D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{644D8762-A143-4821-91CE-A3BBEFB96817}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD1BA23C-33DC-4423-B988-0D7F722AEB79}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{71D168F8-4D3A-4C5F-BE12-AE134129B163}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3CAF8F8-A119-474A-9907-7156C8E18C26}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B6F34D51-850C-4AA4-AE69-D2CFF92788DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F49750AB-CC13-4ACC-8187-B363813C0EB6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A1C5DAA1-4004-4A61-AE38-BFF351502B25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ECF9F8AC-5F89-4B94-ABA3-BFCCF10A23F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5243,7 +5243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB5743C-8412-4124-AB18-8F209A07E6F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AE1A2B-8F5D-442E-B414-C88BECEEF9A7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6520,17 +6520,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5148737E-EB98-488C-AD62-05A033E46E57}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F80522A-F4A3-41A2-B7FF-76C637952700}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF41FEB3-5F1A-43F0-B06A-DF3165A0B47B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{986356F1-93F2-4A94-B924-1741C1F7A401}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA6988BE-3F2E-45FB-832C-1E55F55FB21A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C10BC76-237E-43D8-858A-56018CF3D184}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08C519BC-F74C-453C-8485-8768C726A726}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26A2D892-DDD5-488F-8B05-2923C2DC86BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{07C6A6FC-9695-4AA2-9F3E-945CF18A7A1E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E575D14F-CF07-435E-B7FE-7824C5D621CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F26A410F-4FCF-4422-AE40-D7A3D8907D73}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E90620D-79D1-4C15-BE3D-EA824D8C6B15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C4BF879-A269-4173-98B4-8292F5DDFA3A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA918896-8B5C-41BD-A52A-63624DB7B820}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58B41863-027C-45AC-9CEE-BA38023952E0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FCBEE391-9B4D-4148-B6C4-7D0BF0346002}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC97AC86-DC8E-4943-9D46-7D22746F0398}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4327DB9F-124C-4E60-9783-07A10F993356}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E47121A2-9498-4335-8750-0C7DE1C49A43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FF416034-0C08-4ED0-9FFA-2EA388F9FBE2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F6297DAD-6FCF-42D7-9F7C-1481B65BFE55}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89BC8869-0022-432C-B48A-38FEAD97C261}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6543,7 +6543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1605EFE-7999-433A-8572-FAF2C9A7A5C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E41129-C1B7-417F-8541-3463ED66D7BD}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7830,17 +7830,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B43779E-EC9D-47E5-B1B2-C5FE468517F3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC25A4A6-D08A-4243-AB0B-253C9A5EBF7F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8C3B51AF-56A8-4508-97A2-BAEE81828F75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55471166-FE63-4193-89D6-C95EC842F3C4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C310394-E09A-443A-B3D5-D411D1B70A70}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68F472BF-7D10-4EA4-80FE-72193E48E8B0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{138DBA38-FF92-4E87-95B2-FA78137B2E8B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF7BC3D1-4EB8-42AC-9534-23E9645123FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{64CFB1BB-D08C-4A53-A9F3-BE2264E5E9E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C2C78682-E21A-4193-B034-015A7EBAFAF5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D6AB53E-D97B-4072-AC19-5737DE956BC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F5BE7F0-3454-4E3F-B8A0-1865410F2686}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CC81862-DDEA-472E-A80D-2D447FB24D60}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCB1C061-FF87-4335-BABA-9A3295DAD088}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9735776A-8B92-4FD0-BEE7-5C30E09D4FA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{946C7625-F2E8-4B2F-B432-302BC4037D90}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F6A5C03-3911-4B1E-89E1-5B08AD8E8374}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{425753C7-ED0A-4965-A892-67E0179BB383}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{414CFF2F-1218-41FC-B03F-D6960379C2C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A707A83C-FB35-43EF-BA9E-D6C2402CC6F5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DB74AFE8-8835-4750-B799-AC078E26DD45}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DA5E211-ACCF-41EC-A81B-1BE1C2C31EC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7853,7 +7853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E84AB8F-60AD-4C23-9DF7-3E0B5D092DCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CC2955-2EC4-4F7D-9E2E-0BFF6C1EE3D4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9140,17 +9140,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{705A4BF2-FAA5-4C64-921A-70728323FBEB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDB0FA1F-1567-45F4-91D1-80CB0037089D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33895A80-6FAE-4E99-A452-DF3EADF270C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43AC84DE-8E4F-4ABF-A1F4-F6D743A6C73A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A4E8FE9-4624-4B66-A292-DCD3EA4B305A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{98A3AEF5-7276-4800-B8FE-4FF681AA726B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04CD6D90-2903-4D5C-8511-7331FB5BACAF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{287B9D01-7A06-4AF6-A587-D7CB340D3C62}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FD09CB24-BDA6-4131-8CE7-37CC52F969C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BA3C716D-F081-424B-AA0D-9B9C5D13376A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E0EEEEE-1110-46BB-9DE2-1A347AF0F3EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86122E0C-B474-452D-B1FF-ECF01670FF03}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DCB46BA-CFC1-4E08-A10A-6457E778C92A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ADAD99DB-5E92-42A2-986C-DF8D665F0891}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{947A1140-F0E2-4CE7-8D09-869D061124BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9D5B898-E29D-464B-8F39-12C590FAC930}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2285A028-4FA6-4827-997A-DBD00AB9B8B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E84E4313-0127-4B49-A08B-BBD10A0165EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{175E8599-4C7E-4BBC-86BA-C49F7ECCD9D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D7EE0AD8-4A69-44B0-9750-065D06591E08}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{620B4AAE-84E0-4458-BA9E-7B3CAD241365}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83E0012D-C240-4C6A-9AB6-378947B52C3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9163,7 +9163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922EEA88-D685-4409-BF92-9F26FA6D809E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB10030B-87C8-40F7-9514-45E30AF3607B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10450,17 +10450,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C87AFCEA-E7AE-4033-9392-A348E4DC6561}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6536DA2F-FC5D-4671-A952-AD03E35C5AC1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4C5DA653-5558-4C46-84EA-D7557527678A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62C8D587-CDB3-45ED-B061-C5B0B6E38885}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F4F458C-9B66-4514-8FFD-CAB5B95645E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EED5C601-ABAB-4A23-B86F-48C54FE4C5F8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C2CF61B-6BDD-47AB-A641-0C09D0EBC2AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CBA292FD-EB10-4989-9A50-8D902A2E8FC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B164F5D3-708D-43C1-ACFA-965CCDEE1BDD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{544AE87C-58EA-43E0-8EC6-52280527271F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4589423-D702-419F-B573-36C9A5EDCC2F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4776485-AA45-41F4-B6CD-F7125D40961D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D41F377E-CA58-4D80-A9D9-671C820E72A5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{20A61AAA-BBDB-4BB8-9DBE-4799DB3CBD71}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{525FE745-8BB6-4355-8C87-24D6ADB3E87D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05612291-A832-49EB-8685-5BC4A14D27C5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41BA1AD8-1C98-4CE8-BEF4-75702BD3A6F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37D2490A-D4F4-4F29-AC67-6C0B323AC180}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71DB0F11-ACF7-4795-AF33-C34EC86E11E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7C577F59-11BF-4F8A-898F-92219B42E074}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{419A5185-CBE2-41BA-93A8-B6E43FF2493A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA2E76E5-4E62-450C-BC36-3AE47972B8B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10473,7 +10473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9136C3-C6FE-4FC1-B0BE-576F8E41FB43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2201B8-4739-425D-8FCF-42B63A7BC4DB}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11760,17 +11760,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E944D80D-B7F6-4E3A-9A18-FF8EAC7EDDD9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B3DA94D-1D11-43DC-9AF7-8CB872983281}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3964AB94-E090-43B8-983B-F9A6B1497C6C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AF86ED27-BF45-4071-8B41-CBC6CF194674}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F894700-58A2-433E-8943-6F7340CE8F63}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8CBA9E8-F505-4804-89E5-9C2412130C47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{312C9F5B-39B6-4D49-BE95-B73CA6C98A38}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17B580CC-E4D7-40D5-A28A-A7B75446C864}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8E0325DB-8F49-47D2-897F-E8CE4B666E2D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2A3FF667-833B-46C9-92B6-50B65DCF8E50}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D776FF2-1FC5-4798-A30C-810870978401}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9DDE6CE7-32DC-479C-B3F9-4B9FD46DE524}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FF6C85B-0E9C-4421-88B6-E208AC900311}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6FCD8C84-1529-412E-9115-3A510981F764}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{009931EC-6A8C-4D9F-B34E-C18B7DB30F98}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCEDF83A-C419-4161-A69F-C907DF417856}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93AFEDD2-8D2F-44A1-8482-3329012A916E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A5C29DE-0D45-458F-B7AA-75AF7AA6B46F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B3A5C75-AB1B-48EA-9678-30DB76D57363}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{10D0042A-EA0F-4542-A7CC-265E54B4F07E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EC392556-7B23-43C1-A62A-BCCD1BD5EFB5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF1F3904-5A94-45F0-92BD-0679800961D8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11783,7 +11783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396EB14B-2B5D-47AC-A3E3-145726EEC3BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58785345-1A05-4D62-9772-C536277CC348}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13070,17 +13070,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6CA3010-2325-45B1-88FB-7646D74C5BEC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D852A7D-941A-4D18-99F4-31407443B64C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F4EEC4A-0F39-49BC-B9B8-61B139FDDA95}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71C279B0-FE9D-47CC-BCF2-F9FC8AE362AC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FDFE90AF-3F7C-45B7-9F45-96BB49DE98AF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{21A3A2FF-3227-4908-A5E2-F8403AF43AE0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD7DA674-E0DC-47ED-B8EA-89A9559B88D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0B03D32-D34C-4328-9D68-F0C502702A0F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FF7F74FF-7E0B-4878-B9E7-11B8C6D3BCD1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5D8A7A9E-DE44-4499-A3AA-E0C9B6BC258E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92C714C6-564C-48EE-8409-777CA67733CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D4A9C0E-C433-4D06-8920-B379B609894D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC9B239A-9472-4C32-8E67-D406BF587E89}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{522C1FC1-BB61-4960-A35B-C058EA074363}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C970CD8-98F2-437F-8594-632ECB1602A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFFD7F5E-6021-4057-A902-304FBC9525E8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74ECBAEE-F66C-46D5-B4A0-2692139C1920}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A4F02E6-E01E-4C1D-A76D-3B1F8E56A6E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B06F803-24FE-42C0-9F4B-14EF1B27D40E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C48C51F3-97DF-4E5D-8EAA-34804F0338E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{714562D0-926B-4C01-ABF7-2FAF339B7741}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F823385-1101-4349-94A6-E08059CB5E14}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13093,7 +13093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB49747-3035-48B6-83EE-5A52B2605DE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2107FEFA-5057-4DB5-AB15-6DC9E832BC03}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14380,17 +14380,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C58A4348-1701-45F6-92D4-BE237A1EF48C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0FCEF91-5CFC-4CA0-A2A1-7B66085AC37D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{82B27A56-86CA-4B9C-B155-CE55AFF3D0AE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{037D2807-623C-4552-A544-AAA7E1B80426}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43389E9D-C23F-4635-9AF2-F15FF3E39636}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3FF7F6C6-A0B5-417C-A25C-D3C222C7DAA5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42D6D722-DD95-4E8C-B35E-31D028AF7DC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4381802-D1FE-4CE7-ACA0-61623ECC32C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{92C5C4AA-6E22-4B03-A541-B3D744ADA10A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{96479283-7CB9-4310-9A71-B2185915ABF8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22129729-32D4-43ED-A8D0-7FF25DC3EA60}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAC23E27-997B-41F4-9692-CDDCEE1E3053}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4C32DC8-737A-435B-A70E-E375E1D80261}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ECAE98BD-265F-494E-A2C2-E9F05D5872D6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1986037-006F-44B1-AFF9-8000E857B88D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{218655FE-1D63-4577-8C4E-1A26D3F330E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{546C2AE4-043A-4344-9967-AC2D129BE568}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33258BE5-5617-4BC4-936C-13797C7D3461}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C3E23BB-FF76-49D5-90CB-E32EDF77A213}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EC2C9DEB-FD11-4FA5-B22B-FE39B2B6EB86}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{65B1CBAB-1177-459C-B2CE-68C0E87CDF2F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2CAF049-B8D9-4455-9F88-40CFBE1E22DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14403,7 +14403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA8DD7A-2E57-43CF-9B0A-1E013D9F3D34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F3B888-043B-49F4-8D05-18A5403D2981}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15686,17 +15686,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6710DEB7-B620-4C2E-AAC1-258222513146}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A37B1FE-1F9F-45CD-8616-38DC13C09F56}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE63DBA1-11B5-41F8-956E-AAE01F14A13C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE218EE6-FAF4-4FC2-A866-C803A8DFBECA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C11525F5-9153-4B8E-8D04-3A143669E4AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B0A16DB-F58B-4F05-86F0-2AE0B64F3E24}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE08B6C2-43BB-49EA-ADB8-7721D1ADF51B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7FD7F4B-91CD-43C5-BAC2-C6A0FB01E76D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1127F3D1-4067-4331-9DF9-EF0BE0468DE6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{52805462-57D3-41C4-8308-7250F9B31FDE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C91086B3-91B3-4B2C-8FB6-A3B34A9FC2C6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{024CF347-276F-4825-88D9-54291EEA88E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB4097B1-1818-4293-91E3-6F12B7A79CE8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2DC0CC4-A55B-48C3-A653-BD9CDE835A0D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8AEF6E01-2314-4CE3-BA64-EBF4C757EF53}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8CE01E5C-984D-4D65-AEBF-603AE1463367}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{719C2BD4-19C7-4AFB-8B76-1A747140D39D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDB50244-58DE-412B-B416-55B8290A87D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE23CC31-94B3-4A80-9A73-7A6EB51C6ABB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{77E39112-0FE5-4D29-BBD0-839785C89A48}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{50294B0A-11A0-4793-B9FA-E64DB9A4D386}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95A8E1F6-AEC4-41D9-AA55-56ED7C846826}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15709,7 +15709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C02CD0-3EFD-43EB-AB2B-D8CBBE422CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A32599-0B2A-4E89-858B-1F7970B63E4A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16992,17 +16992,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12935864-54FE-430A-88EE-53498DC0ABA7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CBE5CEC-FEB4-4F3C-B830-2DBBBB38C4A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E7C27A2C-1C0A-42DF-9812-0C8F45A2654D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA6EBC37-C1BC-4325-AF81-950B8879CE0A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9ABFAFAA-9695-46D7-A78C-5758693FC1A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4898D5D6-676D-4D74-AD68-8D119B2F875F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E98A9BE2-53B7-40E5-A45D-EDF945BAEFB8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82496E2F-F220-47F5-B395-25CD14E682C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B3A26367-49BC-4D7B-9956-4336A9E10737}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D6756A32-F9CF-4167-AC29-24264F0D0C4B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{894D13A9-ADD8-41B6-9F11-1AF7B2E10984}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6ABB6327-6A33-4B58-954D-4378749927B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BBC830B-87BB-4B27-A351-8144446FE18C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3DBA7602-834F-4920-BDA4-CCC74D0F56CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58CDBF52-2082-450C-B048-2F5AD4E45D43}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5304CFF8-1042-43D5-BE27-768009B2E672}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26A595EA-EC39-4CFA-A63B-4731FFC93D04}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36DB78DB-D37B-4C1E-A13A-006081FBD3CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49C79DF4-BB84-4C25-89CC-EC729A22C832}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9DC10D38-5AE2-40B3-8B18-1019E7A6521D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6B57C949-616E-4BBB-B5C6-649B590100BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D08F20F-8478-4260-8AD0-167C90D78CF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
